--- a/TestResults/GeoRltspGraphQL.xlsx
+++ b/TestResults/GeoRltspGraphQL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="51">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -144,13 +144,191 @@
 DB_expirationDate: 2021-12-30
 </t>
   </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify the geopolitical relationship record with relationshiptypecode parameter with geopoliticalComponentId, relateGeopoliticalComponentId, geopoliticalRelationshipTypeCode attributes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalComponentId: 1613726817991424876
+DB_geopoliticalComponentId: 1613726817991424876
+Response_relatedGeopoliticalComponentId: 5695698121285912900
+DB_relatedGeopoliticalComponentId: 5695698121285912900
+Response_geopoliticalRelationshipTypeCode: CS
+DB_geopoliticalRelationshipTypeCode: CS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalComponentId: 1613726817991424876
+DB_geopoliticalComponentId: 1613726817991424876
+Response_relatedGeopoliticalComponentId: 4257142281841780264
+DB_relatedGeopoliticalComponentId: 4257142281841780264
+Response_geopoliticalRelationshipTypeCode: CS
+DB_geopoliticalRelationshipTypeCode: CS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalComponentId: 2063825024503874704
+DB_geopoliticalComponentId: 2063825024503874704
+Response_relatedGeopoliticalComponentId: 5695698121285912900
+DB_relatedGeopoliticalComponentId: 5695698121285912900
+Response_geopoliticalRelationshipTypeCode: CS
+DB_geopoliticalRelationshipTypeCode: CS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalComponentId: 1221709320254048809
+DB_geopoliticalComponentId: 1221709320254048809
+Response_relatedGeopoliticalComponentId: 7317162917942004948
+DB_relatedGeopoliticalComponentId: 7317162917942004948
+Response_geopoliticalRelationshipTypeCode: CS
+DB_geopoliticalRelationshipTypeCode: CS
+</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify the geopolitical relationship record with fromGeopoliticalId, toGeopoliticalId parameters with all the attributes.</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify all the geopolitical relationship records which is matching with given EffDate and ExpDate(no other parameters inculded) with all the attributes</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify no results fetched when passing the invalid relationshiptypecode parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"query":"
+	{
+		  relationships(relationshipTypeCode : \"CS123\") 
+		{
+			    geopoliticalComponentId    relatedGeopoliticalComponentId    geopoliticalRelationshipTypeCode    effectiveDate    expirationDate  
+		}
+	}"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+		]
+	},
+	"data":
+	{
+		"relationships":
+		[
+		]
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify no results fetched when the give effective and expiration data range not matching with any records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"query":"
+	{
+		  relationships(relationshipTypeCode : \"CS\",
+		 targetDate : \"1995-01-01\",
+		 endDate : \"1996-01-01\") 
+		{
+			    geopoliticalComponentId    relatedGeopoliticalComponentId    geopoliticalRelationshipTypeCode    effectiveDate    expirationDate  
+		}
+	}"
+}</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the invalid any one of the attribute name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+			{
+				"timestamp":"2020-02-04T13:50:46.439Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'geopoliticalComponentId1' in type 'GeoPoliticalRelationship' is undefined @ 'relationships/geopoliticalComponentId1'",
+				"path":null
+			}
+		]
+	},
+	"data":null
+}</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the multiple(2 attributes) invalid attribute names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+			{
+				"timestamp":"2020-02-04T13:50:49.445Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'geopoliticalComponentId1' in type 'GeoPoliticalRelationship' is undefined @ 'relationships/geopoliticalComponentId1'",
+				"path":null
+			},
+			{
+				"timestamp":"2020-02-04T13:50:49.445Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'relatedGeopoliticalComponentId2' in type 'GeoPoliticalRelationship' is undefined @ 'relationships/relatedGeopoliticalComponentId2'",
+				"path":null
+			}
+		]
+	},
+	"data":null
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="79">
+  <fonts count="255">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -548,6 +726,886 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -616,7 +1674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -850,6 +1908,534 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1160,6 +2746,572 @@
       </c>
       <c r="L8"/>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>15</v>
+      </c>
+      <c r="G9" s="85"/>
+      <c r="H9" t="s" s="86">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>18</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>15</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>15</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>15</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>15</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>15</v>
+      </c>
+      <c r="G14" s="140"/>
+      <c r="H14" t="s" s="141">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>25</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>15</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>15</v>
+      </c>
+      <c r="G16" s="162"/>
+      <c r="H16" t="s" s="163">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>18</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s" s="169">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s" s="173">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s" s="174">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s" s="177">
+        <v>15</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s" s="180">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s" s="184">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s" s="185">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s" s="188">
+        <v>15</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="189">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s" s="190">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s" s="191">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="193">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s" s="194">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="195">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s" s="196">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s" s="197">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s" s="198">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s" s="199">
+        <v>15</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="200">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s" s="201">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s" s="202">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="204">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s" s="205">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="206">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s" s="207">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s" s="208">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s" s="209">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s" s="210">
+        <v>15</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="211">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="212">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s" s="213">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="214">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s" s="215">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s" s="216">
+        <v>14</v>
+      </c>
+      <c r="G21" s="217"/>
+      <c r="H21" t="s" s="218">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s" s="219">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s" s="220">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s" s="221">
+        <v>15</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s" s="224">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="225">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s" s="226">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s" s="227">
+        <v>14</v>
+      </c>
+      <c r="G22" s="228"/>
+      <c r="H22" t="s" s="229">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s" s="230">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s" s="231">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s" s="232">
+        <v>15</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="233">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s" s="234">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s" s="235">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="236">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s" s="237">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s" s="238">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s" s="239">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s" s="240">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s" s="241">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s" s="242">
+        <v>47</v>
+      </c>
+      <c r="K23" t="s" s="243">
+        <v>15</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="244">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s" s="245">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s" s="246">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="247">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s" s="248">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s" s="249">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s" s="250">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s" s="251">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s" s="252">
+        <v>50</v>
+      </c>
+      <c r="J24" t="s" s="253">
+        <v>47</v>
+      </c>
+      <c r="K24" t="s" s="254">
+        <v>15</v>
+      </c>
+      <c r="L24"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
